--- a/biology/Zoologie/Caenoplanini/Caenoplanini.xlsx
+++ b/biology/Zoologie/Caenoplanini/Caenoplanini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Caenoplanini sont une tribu de vers plats terrestres ou marins de la famille des Geoplanidae (sous-famille des Rhynchodeminae).
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,12 +551,49 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Caenoplanini Ogren (d) &amp; Kawakatsu (d), 1991[1].
-Caenoplanini a pour synonyme la sous-famille des Caenoplaninae Ogren &amp; Kawakatsu, 1991[1],[Publ. orig. 1] avec comme genre type Caenoplana Moseley, 1877[Publ. orig. 1].
-Liste des genres
-Selon la base de données World Register of Marine Species                               (20 janvier 2024)[1], la tribu des Caenoplanini regroupe les genres suivants :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Caenoplanini Ogren (d) &amp; Kawakatsu (d), 1991.
+Caenoplanini a pour synonyme la sous-famille des Caenoplaninae Ogren &amp; Kawakatsu, 1991,[Publ. orig. 1] avec comme genre type Caenoplana Moseley, 1877[Publ. orig. 1].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Caenoplanini</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caenoplanini</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon la base de données World Register of Marine Species                               (20 janvier 2024), la tribu des Caenoplanini regroupe les genres suivants :
 Arthurdendyus Jones &amp; Gerard, 1999
 Artioposthia Graff, 1896
 Australopacifica Ogren &amp; Kawakatsu, 1991
@@ -558,8 +609,43 @@
 Reomkago Winsor, 1991
 Tasmanoplana Winsor, 1991
 Timyma Froehlich, 1978
-Genres synonymes
-D'après World Register of Marine Species                               (20 janvier 2024)[1], les genres suivants sont des synonymes :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Caenoplanini</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caenoplanini</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Genres synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>D'après World Register of Marine Species                               (20 janvier 2024), les genres suivants sont des synonymes :
 le genre Coenoplana Moseley, 1877 est Kontikia Froehlich, 1954 ;
 le genre Elattodemus Haslauer-Gamisch, 1982 est Caenoplana Moseley, 1877 ;
 le genre Parakontikia Winsor, 1991 est un synonyme junior de Kontikia Froehlich, 1954.</t>
